--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H2">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I2">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J2">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.929393</v>
+        <v>2.781641666666667</v>
       </c>
       <c r="N2">
-        <v>8.788179</v>
+        <v>8.344925</v>
       </c>
       <c r="O2">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="P2">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="Q2">
-        <v>1.376363583478</v>
+        <v>0.5432370004361111</v>
       </c>
       <c r="R2">
-        <v>12.387272251302</v>
+        <v>4.889133003925</v>
       </c>
       <c r="S2">
-        <v>0.000545133263814313</v>
+        <v>0.0003446529800975262</v>
       </c>
       <c r="T2">
-        <v>0.000545133263814313</v>
+        <v>0.0003446529800975262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H3">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I3">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J3">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.36438</v>
       </c>
       <c r="O3">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="P3">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="Q3">
-        <v>0.05706749516</v>
+        <v>0.02372036875333333</v>
       </c>
       <c r="R3">
-        <v>0.5136074564400001</v>
+        <v>0.21348331878</v>
       </c>
       <c r="S3">
-        <v>2.260259590395911E-05</v>
+        <v>1.504922487475161E-05</v>
       </c>
       <c r="T3">
-        <v>2.26025959039591E-05</v>
+        <v>1.504922487475161E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H4">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I4">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J4">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.74733466666667</v>
+        <v>5.320086</v>
       </c>
       <c r="N4">
-        <v>32.24200399999999</v>
+        <v>15.960258</v>
       </c>
       <c r="O4">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="P4">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="Q4">
-        <v>5.049592203794666</v>
+        <v>1.038979101922</v>
       </c>
       <c r="R4">
-        <v>45.44632983415199</v>
+        <v>9.350811917298</v>
       </c>
       <c r="S4">
-        <v>0.001999980755106847</v>
+        <v>0.0006591731480900528</v>
       </c>
       <c r="T4">
-        <v>0.001999980755106847</v>
+        <v>0.0006591731480900526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H5">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I5">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J5">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.555191</v>
+        <v>0.9776426666666667</v>
       </c>
       <c r="N5">
-        <v>4.665572999999999</v>
+        <v>2.932928</v>
       </c>
       <c r="O5">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="P5">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="Q5">
-        <v>0.7307002705859998</v>
+        <v>0.1909274210631111</v>
       </c>
       <c r="R5">
-        <v>6.576302435273999</v>
+        <v>1.718346789568</v>
       </c>
       <c r="S5">
-        <v>0.0002894068312734567</v>
+        <v>0.0001211325896411864</v>
       </c>
       <c r="T5">
-        <v>0.0002894068312734567</v>
+        <v>0.0001211325896411864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H6">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I6">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J6">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.63816866666667</v>
+        <v>5.549588666666668</v>
       </c>
       <c r="N6">
-        <v>40.914506</v>
+        <v>16.648766</v>
       </c>
       <c r="O6">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781214</v>
       </c>
       <c r="P6">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781213</v>
       </c>
       <c r="Q6">
-        <v>6.407838995358667</v>
+        <v>1.083799519205111</v>
       </c>
       <c r="R6">
-        <v>57.67055095822801</v>
+        <v>9.754195672846</v>
       </c>
       <c r="S6">
-        <v>0.002537938541435068</v>
+        <v>0.0006876091536887836</v>
       </c>
       <c r="T6">
-        <v>0.002537938541435068</v>
+        <v>0.0006876091536887833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H7">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I7">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J7">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.929393</v>
+        <v>2.781641666666667</v>
       </c>
       <c r="N7">
-        <v>8.788179</v>
+        <v>8.344925</v>
       </c>
       <c r="O7">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="P7">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="Q7">
-        <v>8.491340677916998</v>
+        <v>9.356675760780556</v>
       </c>
       <c r="R7">
-        <v>76.42206610125299</v>
+        <v>84.21008184702499</v>
       </c>
       <c r="S7">
-        <v>0.003363146419651058</v>
+        <v>0.005936278607993252</v>
       </c>
       <c r="T7">
-        <v>0.003363146419651057</v>
+        <v>0.00593627860799325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H8">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.36438</v>
       </c>
       <c r="O8">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="P8">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="Q8">
-        <v>0.35207233674</v>
+        <v>0.4085579575266667</v>
       </c>
       <c r="R8">
-        <v>3.16865103066</v>
+        <v>3.677021617739999</v>
       </c>
       <c r="S8">
-        <v>0.0001394445074903974</v>
+        <v>0.0002592067872605902</v>
       </c>
       <c r="T8">
-        <v>0.0001394445074903973</v>
+        <v>0.0002592067872605902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H9">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.74733466666667</v>
+        <v>5.320086</v>
       </c>
       <c r="N9">
-        <v>32.24200399999999</v>
+        <v>15.960258</v>
       </c>
       <c r="O9">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="P9">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="Q9">
-        <v>31.152965830892</v>
+        <v>17.895302733626</v>
       </c>
       <c r="R9">
-        <v>280.376692478028</v>
+        <v>161.057724602634</v>
       </c>
       <c r="S9">
-        <v>0.01233868590011367</v>
+        <v>0.01135355178667911</v>
       </c>
       <c r="T9">
-        <v>0.01233868590011367</v>
+        <v>0.01135355178667911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H10">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.555191</v>
+        <v>0.9776426666666667</v>
       </c>
       <c r="N10">
-        <v>4.665572999999999</v>
+        <v>2.932928</v>
       </c>
       <c r="O10">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="P10">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="Q10">
-        <v>4.507983940778999</v>
+        <v>3.288520427171556</v>
       </c>
       <c r="R10">
-        <v>40.57185546701099</v>
+        <v>29.596683844544</v>
       </c>
       <c r="S10">
-        <v>0.001785467174777692</v>
+        <v>0.002086379175988332</v>
       </c>
       <c r="T10">
-        <v>0.001785467174777692</v>
+        <v>0.002086379175988331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H11">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.63816866666667</v>
+        <v>5.549588666666668</v>
       </c>
       <c r="N11">
-        <v>40.914506</v>
+        <v>16.648766</v>
       </c>
       <c r="O11">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781214</v>
       </c>
       <c r="P11">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781213</v>
       </c>
       <c r="Q11">
-        <v>39.532536730838</v>
+        <v>18.66728643805756</v>
       </c>
       <c r="R11">
-        <v>355.792830577542</v>
+        <v>168.005577942518</v>
       </c>
       <c r="S11">
-        <v>0.01565756391235223</v>
+        <v>0.01184333154046146</v>
       </c>
       <c r="T11">
-        <v>0.01565756391235223</v>
+        <v>0.01184333154046146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H12">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I12">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J12">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.929393</v>
+        <v>2.781641666666667</v>
       </c>
       <c r="N12">
-        <v>8.788179</v>
+        <v>8.344925</v>
       </c>
       <c r="O12">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="P12">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="Q12">
-        <v>232.208644678967</v>
+        <v>281.350523287625</v>
       </c>
       <c r="R12">
-        <v>2089.877802110703</v>
+        <v>2532.154709588625</v>
       </c>
       <c r="S12">
-        <v>0.09197036152313073</v>
+        <v>0.1785009051762531</v>
       </c>
       <c r="T12">
-        <v>0.09197036152313073</v>
+        <v>0.178500905176253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H13">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I13">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J13">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.36438</v>
       </c>
       <c r="O13">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="P13">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="Q13">
-        <v>9.62795431774</v>
+        <v>12.2851318227</v>
       </c>
       <c r="R13">
-        <v>86.65158885966001</v>
+        <v>110.5661864043</v>
       </c>
       <c r="S13">
-        <v>0.003813322456426796</v>
+        <v>0.007794217422939461</v>
       </c>
       <c r="T13">
-        <v>0.003813322456426796</v>
+        <v>0.00779421742293946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H14">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I14">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J14">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.74733466666667</v>
+        <v>5.320086</v>
       </c>
       <c r="N14">
-        <v>32.24200399999999</v>
+        <v>15.960258</v>
       </c>
       <c r="O14">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="P14">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="Q14">
-        <v>851.9253022240252</v>
+        <v>538.10273191257</v>
       </c>
       <c r="R14">
-        <v>7667.327720016227</v>
+        <v>4842.92458721313</v>
       </c>
       <c r="S14">
-        <v>0.3374201599796986</v>
+        <v>0.3413955787315684</v>
       </c>
       <c r="T14">
-        <v>0.3374201599796985</v>
+        <v>0.3413955787315684</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H15">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I15">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J15">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.555191</v>
+        <v>0.9776426666666667</v>
       </c>
       <c r="N15">
-        <v>4.665572999999999</v>
+        <v>2.932928</v>
       </c>
       <c r="O15">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="P15">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="Q15">
-        <v>123.277687332129</v>
+        <v>98.88415145312</v>
       </c>
       <c r="R15">
-        <v>1109.499185989161</v>
+        <v>889.95736307808</v>
       </c>
       <c r="S15">
-        <v>0.04882631948240444</v>
+        <v>0.06273637004727753</v>
       </c>
       <c r="T15">
-        <v>0.04882631948240444</v>
+        <v>0.06273637004727753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H16">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I16">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J16">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.63816866666667</v>
+        <v>5.549588666666668</v>
       </c>
       <c r="N16">
-        <v>40.914506</v>
+        <v>16.648766</v>
       </c>
       <c r="O16">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781214</v>
       </c>
       <c r="P16">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781213</v>
       </c>
       <c r="Q16">
-        <v>1081.077432078871</v>
+        <v>561.3158927363901</v>
       </c>
       <c r="R16">
-        <v>9729.696888709843</v>
+        <v>5051.843034627511</v>
       </c>
       <c r="S16">
-        <v>0.4281799344733763</v>
+        <v>0.3561230090225648</v>
       </c>
       <c r="T16">
-        <v>0.4281799344733763</v>
+        <v>0.3561230090225647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H17">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I17">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J17">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.929393</v>
+        <v>2.781641666666667</v>
       </c>
       <c r="N17">
-        <v>8.788179</v>
+        <v>8.344925</v>
       </c>
       <c r="O17">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="P17">
-        <v>0.1010430028559359</v>
+        <v>0.1885805187409705</v>
       </c>
       <c r="Q17">
-        <v>13.039085628946</v>
+        <v>5.987427127452778</v>
       </c>
       <c r="R17">
-        <v>117.351770660514</v>
+        <v>53.886844147075</v>
       </c>
       <c r="S17">
-        <v>0.005164361649339769</v>
+        <v>0.003798681976626635</v>
       </c>
       <c r="T17">
-        <v>0.005164361649339769</v>
+        <v>0.003798681976626635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H18">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I18">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J18">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.36438</v>
       </c>
       <c r="O18">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="P18">
-        <v>0.004189496980050807</v>
+        <v>0.008234342360037365</v>
       </c>
       <c r="Q18">
-        <v>0.5406332781200002</v>
+        <v>0.2614401803133333</v>
       </c>
       <c r="R18">
-        <v>4.865699503080001</v>
+        <v>2.35296162282</v>
       </c>
       <c r="S18">
-        <v>0.0002141274202296546</v>
+        <v>0.0001658689249625627</v>
       </c>
       <c r="T18">
-        <v>0.0002141274202296545</v>
+        <v>0.0001658689249625626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H19">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I19">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J19">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.74733466666667</v>
+        <v>5.320086</v>
       </c>
       <c r="N19">
-        <v>32.24200399999999</v>
+        <v>15.960258</v>
       </c>
       <c r="O19">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="P19">
-        <v>0.3707057972138592</v>
+        <v>0.3606735510360756</v>
       </c>
       <c r="Q19">
-        <v>47.83769777616267</v>
+        <v>11.451376939918</v>
       </c>
       <c r="R19">
-        <v>430.539279985464</v>
+        <v>103.062392459262</v>
       </c>
       <c r="S19">
-        <v>0.01894697057894012</v>
+        <v>0.007265247369738022</v>
       </c>
       <c r="T19">
-        <v>0.01894697057894012</v>
+        <v>0.007265247369738021</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H20">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I20">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J20">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.555191</v>
+        <v>0.9776426666666667</v>
       </c>
       <c r="N20">
-        <v>4.665572999999999</v>
+        <v>2.932928</v>
       </c>
       <c r="O20">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="P20">
-        <v>0.05364291122922932</v>
+        <v>0.06627897598479518</v>
       </c>
       <c r="Q20">
-        <v>6.922344874302</v>
+        <v>2.104355961265778</v>
       </c>
       <c r="R20">
-        <v>62.30110386871799</v>
+        <v>18.939203651392</v>
       </c>
       <c r="S20">
-        <v>0.002741717740773725</v>
+        <v>0.001335094171888136</v>
       </c>
       <c r="T20">
-        <v>0.002741717740773724</v>
+        <v>0.001335094171888136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H21">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I21">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J21">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.63816866666667</v>
+        <v>5.549588666666668</v>
       </c>
       <c r="N21">
-        <v>40.914506</v>
+        <v>16.648766</v>
       </c>
       <c r="O21">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781214</v>
       </c>
       <c r="P21">
-        <v>0.4704187917209249</v>
+        <v>0.3762326118781213</v>
       </c>
       <c r="Q21">
-        <v>60.70515259191068</v>
+        <v>11.94537676336378</v>
       </c>
       <c r="R21">
-        <v>546.346373327196</v>
+        <v>107.508390870274</v>
       </c>
       <c r="S21">
-        <v>0.02404335479376124</v>
+        <v>0.007578662161406404</v>
       </c>
       <c r="T21">
-        <v>0.02404335479376124</v>
+        <v>0.007578662161406401</v>
       </c>
     </row>
   </sheetData>
